--- a/Data/Study_Animals.xlsx
+++ b/Data/Study_Animals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_projects\StudyAnimals\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_projects\AnimalMovement\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -731,40 +731,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3822,17 +3789,17 @@
     <sortCondition ref="C2:C58"/>
   </sortState>
   <conditionalFormatting sqref="E2:E58 E61:J62 K61">
-    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:J58">
-    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:J58 G61:J62 K61">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3851,7 +3818,7 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6002,8 +5969,8 @@
       <c r="B57" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="10">
-        <v>18</v>
+      <c r="C57" s="6">
+        <v>47809</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>100</v>
@@ -6484,117 +6451,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E58 H60:J61">
-    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:J58">
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:J58 H60:J61">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:E64">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:E64">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:F64">
-    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:F64">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:G64">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:G64">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
